--- a/docs/plan.xlsx
+++ b/docs/plan.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>#</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -106,6 +106,26 @@
   </si>
   <si>
     <t>todo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端框架代码整理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在项目中实现菜单helloworld 对应页面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单实现，router准备</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录页面login,已经login逻辑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端框架代码整理</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -241,7 +261,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
@@ -280,21 +300,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -602,7 +638,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -636,7 +672,7 @@
       <c r="B2" s="8">
         <v>1</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="16" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -645,13 +681,13 @@
       <c r="E2" s="5">
         <v>2</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="19" t="s">
         <v>22</v>
       </c>
     </row>
@@ -662,7 +698,7 @@
       <c r="B3" s="8">
         <v>1</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="23" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -676,37 +712,69 @@
       <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="5"/>
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="5"/>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="5"/>
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="5"/>
+      <c r="B7" s="8">
+        <v>1</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
@@ -810,7 +878,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+      <selection activeCell="F3" sqref="F3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -856,11 +924,15 @@
       <c r="B2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
+      <c r="D2" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>25</v>
+      </c>
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
@@ -873,19 +945,24 @@
       <c r="B3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="28"/>
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/plan.xlsx
+++ b/docs/plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="plans" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>#</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -126,6 +126,22 @@
   </si>
   <si>
     <t>前端框架代码整理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面改为左右布局</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引入less</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -133,7 +149,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,6 +176,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -261,7 +286,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
@@ -306,12 +331,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -320,7 +339,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -329,8 +354,19 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -637,18 +673,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="9" style="9"/>
     <col min="3" max="3" width="44.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="6"/>
+    <col min="5" max="6" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -664,8 +700,11 @@
       <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F1" s="34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -681,6 +720,7 @@
       <c r="E2" s="5">
         <v>2</v>
       </c>
+      <c r="F2" s="5"/>
       <c r="G2" s="17" t="s">
         <v>20</v>
       </c>
@@ -691,14 +731,14 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8">
         <v>2</v>
       </c>
       <c r="B3" s="8">
         <v>1</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="21" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -707,15 +747,18 @@
       <c r="E3" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="8">
         <v>1</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -724,15 +767,18 @@
       <c r="E4" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" s="8">
         <v>1</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="20" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -741,15 +787,16 @@
       <c r="E5" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>5</v>
       </c>
       <c r="B6" s="8">
         <v>1</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="29" t="s">
         <v>25</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -758,15 +805,18 @@
       <c r="E6" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>6</v>
       </c>
       <c r="B7" s="8">
         <v>1</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="20" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -775,26 +825,45 @@
       <c r="E7" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="5">
+        <v>2</v>
+      </c>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B9" s="8">
+        <v>1</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="5">
+        <v>2</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -802,8 +871,9 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -811,8 +881,9 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -820,8 +891,9 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -829,8 +901,9 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -838,8 +911,9 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -847,8 +921,9 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -856,8 +931,9 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -865,6 +941,7 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -877,20 +954,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="9"/>
+    <col min="1" max="1" width="10.125" style="9" customWidth="1"/>
     <col min="2" max="2" width="9" style="10"/>
     <col min="3" max="9" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
+      <c r="A1" s="33" t="s">
+        <v>30</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>11</v>
@@ -924,19 +1001,23 @@
       <c r="B2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
+      <c r="F2" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="32"/>
+      <c r="H2" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="32"/>
     </row>
     <row r="3" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="13">
@@ -945,11 +1026,11 @@
       <c r="B3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="29" t="s">
+      <c r="D3" s="26"/>
+      <c r="E3" s="24" t="s">
         <v>24</v>
       </c>
       <c r="F3" s="27" t="s">
@@ -960,12 +1041,15 @@
       <c r="I3" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/docs/plan.xlsx
+++ b/docs/plan.xlsx
@@ -325,9 +325,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
@@ -342,11 +339,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -354,19 +353,20 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -674,7 +674,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -700,7 +700,7 @@
       <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="27" t="s">
         <v>31</v>
       </c>
     </row>
@@ -711,7 +711,7 @@
       <c r="B2" s="8">
         <v>1</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="34" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -721,13 +721,13 @@
         <v>2</v>
       </c>
       <c r="F2" s="5"/>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="18" t="s">
         <v>22</v>
       </c>
     </row>
@@ -738,7 +738,7 @@
       <c r="B3" s="8">
         <v>1</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="20" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -758,7 +758,7 @@
       <c r="B4" s="8">
         <v>1</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="20" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -778,7 +778,7 @@
       <c r="B5" s="8">
         <v>1</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="19" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -796,7 +796,7 @@
       <c r="B6" s="8">
         <v>1</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="24" t="s">
         <v>25</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -816,7 +816,7 @@
       <c r="B7" s="8">
         <v>1</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="19" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -834,7 +834,7 @@
       <c r="B8" s="8">
         <v>1</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="25" t="s">
         <v>28</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -852,7 +852,7 @@
       <c r="B9" s="8">
         <v>1</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="20" t="s">
         <v>29</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -955,7 +955,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -966,7 +966,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="26" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="12" t="s">
@@ -1001,23 +1001,23 @@
       <c r="B2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="33"/>
+      <c r="H2" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="32"/>
-      <c r="H2" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="32"/>
+      <c r="I2" s="31"/>
     </row>
     <row r="3" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="13">
@@ -1026,17 +1026,17 @@
       <c r="B3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="24" t="s">
+      <c r="D3" s="33"/>
+      <c r="E3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="28"/>
+      <c r="G3" s="29"/>
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
     </row>
@@ -1044,8 +1044,8 @@
   <mergeCells count="4">
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H2:I2"/>
     <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/plan.xlsx
+++ b/docs/plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="plans" sheetId="4" r:id="rId1"/>
@@ -347,6 +347,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -358,15 +367,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -673,7 +673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -711,7 +711,7 @@
       <c r="B2" s="8">
         <v>1</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="28" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -954,8 +954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1010,14 +1010,14 @@
       <c r="E2" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="30" t="s">
+      <c r="G2" s="30"/>
+      <c r="H2" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="31"/>
+      <c r="I2" s="34"/>
     </row>
     <row r="3" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="13">
@@ -1026,17 +1026,17 @@
       <c r="B3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="33"/>
+      <c r="D3" s="30"/>
       <c r="E3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="29"/>
+      <c r="G3" s="32"/>
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
     </row>

--- a/docs/plan.xlsx
+++ b/docs/plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="plans" sheetId="4" r:id="rId1"/>
@@ -286,7 +286,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
@@ -340,7 +340,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -360,12 +359,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -673,7 +666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -700,7 +693,7 @@
       <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="26" t="s">
         <v>31</v>
       </c>
     </row>
@@ -711,7 +704,7 @@
       <c r="B2" s="8">
         <v>1</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="27" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -834,7 +827,7 @@
       <c r="B8" s="8">
         <v>1</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -954,8 +947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -966,7 +959,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="12" t="s">
@@ -1010,14 +1003,14 @@
       <c r="E2" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="30"/>
-      <c r="H2" s="33" t="s">
+      <c r="G2" s="29"/>
+      <c r="H2" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="34"/>
+      <c r="I2" s="29"/>
     </row>
     <row r="3" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="13">
@@ -1026,17 +1019,17 @@
       <c r="B3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="30"/>
+      <c r="D3" s="29"/>
       <c r="E3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="32"/>
+      <c r="G3" s="31"/>
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
     </row>

--- a/docs/plan.xlsx
+++ b/docs/plan.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="40">
   <si>
     <t>#</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -142,6 +142,38 @@
   </si>
   <si>
     <t>实际</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sprint</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建项目功能- js</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建项目功能- html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速创建任务功能 - html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑任务功能 - html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑任务功能 - js</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速创建任务功能 - js</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -227,7 +259,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -276,6 +308,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -286,7 +351,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
@@ -328,7 +393,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -336,9 +400,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -355,12 +416,37 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -664,277 +750,427 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="9" style="9"/>
-    <col min="3" max="3" width="44.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9" style="6"/>
+    <col min="1" max="3" width="9" style="9"/>
+    <col min="4" max="4" width="44.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9" style="6"/>
+    <col min="8" max="8" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="G1" s="24" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" s="8">
         <v>1</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="8">
+        <v>1</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="5">
-        <v>2</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="16" t="s">
+      <c r="F2" s="5">
+        <v>2</v>
+      </c>
+      <c r="G2" s="5">
+        <v>2</v>
+      </c>
+      <c r="H2" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="I2" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="J2" s="18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8">
         <v>2</v>
       </c>
       <c r="B3" s="8">
         <v>1</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="8">
+        <v>1</v>
+      </c>
+      <c r="D3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="5">
-        <v>1</v>
-      </c>
       <c r="F3" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="8">
         <v>1</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="8">
+        <v>1</v>
+      </c>
+      <c r="D4" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="5">
-        <v>1</v>
-      </c>
       <c r="F4" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" s="8">
         <v>1</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>5</v>
       </c>
       <c r="B6" s="8">
         <v>1</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="8">
+        <v>1</v>
+      </c>
+      <c r="D6" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="5">
-        <v>1</v>
-      </c>
       <c r="F6" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>6</v>
       </c>
       <c r="B7" s="8">
         <v>1</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="8">
+        <v>1</v>
+      </c>
+      <c r="D7" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="5">
-        <v>2</v>
-      </c>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F7" s="5">
+        <v>2</v>
+      </c>
+      <c r="G7" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
         <v>7</v>
       </c>
       <c r="B8" s="8">
         <v>1</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="5">
-        <v>2</v>
-      </c>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F8" s="5">
+        <v>2</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <v>8</v>
       </c>
       <c r="B9" s="8">
         <v>1</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="8">
+        <v>1</v>
+      </c>
+      <c r="D9" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="5">
-        <v>2</v>
-      </c>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F9" s="5">
+        <v>2</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
+      <c r="H9" s="38">
+        <v>41931</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="8">
+        <v>2</v>
+      </c>
+      <c r="C10" s="8">
+        <v>1</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="5">
+        <v>2</v>
+      </c>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="8">
+        <v>2</v>
+      </c>
+      <c r="C11" s="8">
+        <v>1</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="5">
+        <v>2</v>
+      </c>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="8">
+        <v>2</v>
+      </c>
+      <c r="C12" s="8">
+        <v>1</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="5">
+        <v>2</v>
+      </c>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="8">
+        <v>2</v>
+      </c>
+      <c r="C13" s="8">
+        <v>1</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="5">
+        <v>2</v>
+      </c>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="8">
+        <v>2</v>
+      </c>
+      <c r="C14" s="8">
+        <v>2</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="5">
+        <v>3</v>
+      </c>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="8">
+        <v>2</v>
+      </c>
+      <c r="C15" s="8">
+        <v>2</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="5">
+        <v>2</v>
+      </c>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="8">
         <v>15</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="3"/>
+      <c r="C16" s="8"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="5"/>
+      <c r="E16" s="3"/>
       <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="8">
         <v>16</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="3"/>
+      <c r="C17" s="8"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="5"/>
+      <c r="E17" s="3"/>
       <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="8">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="8">
+        <v>18</v>
+      </c>
+      <c r="B19" s="31"/>
+    </row>
+    <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="8">
+        <v>19</v>
+      </c>
+      <c r="B20" s="31"/>
+    </row>
+    <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="8">
+        <v>20</v>
+      </c>
+      <c r="B21" s="31"/>
+    </row>
+    <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="8">
+        <v>21</v>
+      </c>
+      <c r="B22" s="31"/>
+    </row>
+    <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="8">
+        <v>22</v>
+      </c>
+      <c r="B23" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -945,10 +1181,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -959,7 +1195,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="23" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="12" t="s">
@@ -994,23 +1230,23 @@
       <c r="B2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="28" t="s">
+      <c r="G2" s="27"/>
+      <c r="H2" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="29"/>
+      <c r="I2" s="27"/>
     </row>
     <row r="3" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="13">
@@ -1019,26 +1255,103 @@
       <c r="B3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="23" t="s">
+      <c r="D3" s="27"/>
+      <c r="E3" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="31"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="35"/>
+    </row>
+    <row r="5" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="13">
+        <v>1</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="33"/>
+      <c r="E6" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="33"/>
+      <c r="G6" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+    </row>
+    <row r="7" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="13">
+        <v>2</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="37"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="10">
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="E7:F7"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/plan.xlsx
+++ b/docs/plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="plans" sheetId="4" r:id="rId1"/>
@@ -351,7 +351,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
@@ -410,43 +410,49 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -752,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -979,7 +985,7 @@
       <c r="G9" s="5">
         <v>1</v>
       </c>
-      <c r="H9" s="38">
+      <c r="H9" s="30">
         <v>41931</v>
       </c>
     </row>
@@ -1146,31 +1152,31 @@
       <c r="A19" s="8">
         <v>18</v>
       </c>
-      <c r="B19" s="31"/>
+      <c r="B19" s="27"/>
     </row>
     <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="31"/>
+      <c r="B20" s="27"/>
     </row>
     <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="8">
         <v>20</v>
       </c>
-      <c r="B21" s="31"/>
+      <c r="B21" s="27"/>
     </row>
     <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="8">
         <v>21</v>
       </c>
-      <c r="B22" s="31"/>
+      <c r="B22" s="27"/>
     </row>
     <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="8">
         <v>22</v>
       </c>
-      <c r="B23" s="31"/>
+      <c r="B23" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1183,8 +1189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1239,14 +1245,16 @@
       <c r="E2" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="26" t="s">
+      <c r="G2" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="27"/>
+      <c r="H2" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="33"/>
     </row>
     <row r="3" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="13">
@@ -1255,21 +1263,21 @@
       <c r="B3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="28" t="s">
+      <c r="D3" s="35"/>
+      <c r="E3" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="36" t="s">
+      <c r="G3" s="37"/>
+      <c r="H3" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="35"/>
+      <c r="I3" s="39"/>
     </row>
     <row r="5" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="23" t="s">
@@ -1308,18 +1316,14 @@
         <v>7</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6" s="33"/>
-      <c r="E6" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="33"/>
-      <c r="G6" s="32" t="s">
+      <c r="E6" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
     </row>
     <row r="7" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="13">
@@ -1328,30 +1332,27 @@
       <c r="B7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37" t="s">
+      <c r="D7" s="31"/>
+      <c r="E7" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="37"/>
+      <c r="F7" s="31"/>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="E7:F7"/>
+  <mergeCells count="7">
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E7:F7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
